--- a/JavaScript.xlsx
+++ b/JavaScript.xlsx
@@ -9494,7 +9494,19 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>var fn = _.bind(s.trim, s)</a:t>
+            <a:t>var fn = </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>_.bind</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>(s.trim, s)</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>

--- a/JavaScript.xlsx
+++ b/JavaScript.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="3" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="4" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="基础" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="异常处理" sheetId="15" r:id="rId15"/>
     <sheet name="第三方库" sheetId="16" r:id="rId16"/>
     <sheet name="Promise" sheetId="17" r:id="rId17"/>
+    <sheet name="webpack" sheetId="18" r:id="rId18"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -5436,12 +5437,24 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>等价于 </a:t>
+            <a:t>等价</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>于 </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
               <a:solidFill>
-                <a:schemeClr val="dk1"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -10566,6 +10579,98 @@
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
             <a:t>Promise.race([]).then()</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing18.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="文本框 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54DC6170-971E-432A-A60C-1BF7DDBC2333}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="285750" y="142875"/>
+          <a:ext cx="7381875" cy="6819900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>webpack  {source</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>}  {target}       </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>设置</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -18069,7 +18174,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5B6CCE7-19A4-4268-8BCF-2A9050833E01}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="U16" sqref="U16"/>
     </sheetView>
   </sheetViews>
@@ -18094,6 +18199,23 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79DB60E1-18A5-471B-965A-D3A8FFE3457C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="S28" sqref="S28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/JavaScript.xlsx
+++ b/JavaScript.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="4" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="基础" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,8 @@
     <sheet name="第三方库" sheetId="16" r:id="rId16"/>
     <sheet name="Promise" sheetId="17" r:id="rId17"/>
     <sheet name="webpack" sheetId="18" r:id="rId18"/>
+    <sheet name="vue-cli" sheetId="19" r:id="rId19"/>
+    <sheet name="array方法" sheetId="20" r:id="rId20"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -37,7 +39,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -50,6 +52,27 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -80,9 +103,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -10663,14 +10689,947 @@
           </a:r>
         </a:p>
         <a:p>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
             <a:t>设置</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>打包</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>loader</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>plugin</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>安装：</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>npm install --save-dev webpack</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>命名目标</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>js</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>文件并导入  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>&lt;script src="bundle.js"&gt;&lt;/script&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>打包：</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>1.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>直接使用</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>webpack</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>webpack {entry file} {destination for bundle file}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>webpack app/main.js  public/bundle.js;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>2. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>使用配置文件打包</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>   （</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>）根目录下创建 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>webpack.config.js</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>   </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>创建导出</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>    module.exports = {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>	devtool: "eval-source-map"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>	entry:  __dirname + "/app/main.js",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>	output: {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>	       path: __dirname+ "/public" ,  // </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>打包后文件放置的位置</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>	       filename: "bundle.j"        	// </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>文件名称</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>	    }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>	}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>）根目录下运行</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>webpack</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>构建本地服务器：</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>npm install --save-dev webpack-dev-server</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing19.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="文本框 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B2BD537-E896-48D0-9D93-2CA7B8D49972}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="152400" y="209550"/>
+          <a:ext cx="6724650" cy="6553200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>安装：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>npm install </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>--global</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t> vue-cli </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>1.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>创建项目： </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>vue init webpack vuetest</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>目录文件：</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>build : </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>操作文件       </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>使用</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>npm run *    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>时其实执行的就是这里的文件</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>config</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>： 配置文件，执行文件所需要的一些配置信息</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>src</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>： 资源文件， 所有的组件以及所用的图片都是放置在这里</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>assets  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>资源文件夹，放图片之类的资源，</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>components  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>组件文件夹，写的所有组件都放在这个文件夹下，现在有一个写好的组件已经放到里面了，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>router  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>路由文件夹，这个决定了也面的跳转规则，</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>App.vue</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>应用组件，所有自己写的组件，都是在这个组件之上运行了，</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>main.js    webpack</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>入口文件，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>webpack</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>四大特性</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>entry</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>入口、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>output</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>输出，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>loader</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>加载器，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>plugins</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>插件，</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>2. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>安装模块</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>npm</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+            <a:t> install </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
+            <a:t>流程：</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+            <a:t>npm run dev   //   </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>"dev": "node build/dev-server.js",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>var config = require('../config')</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>config</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>中</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>index.js  // index.js </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>融合</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>config </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>文件中的配置 </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>index.js </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>配置工程文件 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>（基础</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>配置文件</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>）</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>webpack</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.base.conf.js     //webpack</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>的基础配置</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>npm run</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> build    //</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>进行打包编译</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -11952,6 +12911,1345 @@
             <a:ea typeface="+mn-ea"/>
             <a:cs typeface="+mn-cs"/>
           </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing20.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="文本框 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A29DFC1A-5893-41FA-87F2-9A1A6EFA4CF5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="228600" y="180975"/>
+          <a:ext cx="6391275" cy="6981825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>数组方法：</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>array.slice(start,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>end);        // </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>不影响原数组  默认  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>0:array.length</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>array.splice(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>index, count, replace</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>);     // </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>影响原数组     默认空</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>//index</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>为索引位置，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>count</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>为影响元素个数，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>replace </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>为 替换元素</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>let a = </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[1, 2, 3, 4, 5, 6];</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>新增</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>：</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>1.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>影响原数组</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>a.push(7)      //a = </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[1, 2, 3, 4, 5, 6, 7];</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>a.unshift('a')   // a = </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>['a', 1, 2, 3, 4, 5, 6, 7];</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>不影响原数组</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(1) concat</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>方法</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>a.concat('8');   // [1, 2, 3, 4, 5, 6, 7, 8];   a </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>不变</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(2).</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>spread</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>b = [2,..a];       // b = </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[2,1, 2, 3, 4, 5, 6, 7, 8];   a</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>不变</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>移除：</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>1.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>影响原数组</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>a.pop();   // 6; a = </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[1, 2, 3, 4, 5];   //</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>返回移除元素</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>a.shift();  //1;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>a = </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[2, 3, 4, 5];       //</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>返回移除元素</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>a.splice(0,1) // 2; </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>a = </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[3, 4, 5];       </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>不影响原数组</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>filter()</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>方法</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>基于原数组创建一个新数组，包含</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>filter</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>中匹配条件的元素；</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>a = </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[1, 2, 3, 4, 5, 6];</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>a.filter(funtion(x){return x===2}); //2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>；</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t> a</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>不变返回一个符合值</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>替换</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>：</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>1.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>影响原数组；</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>a.splice(1,1, 100);   a = [1, 100, 3, 4, 5, 6];</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>2.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>不影响原数组</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>map</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" baseline="0">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>方法；创建一个新数组，并使用规则替换元素</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" baseline="0">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" baseline="0">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>a.map((x)=&gt; x+1)  // [2, 101, 4, 5, 6, 7]   a</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" baseline="0">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>不变</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
         <a:p>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
@@ -18072,7 +20370,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39274D79-19C4-4199-87B7-DEDB180167E3}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
@@ -18206,11 +20504,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79DB60E1-18A5-471B-965A-D3A8FFE3457C}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="S28" sqref="S28"/>
+    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="P30" sqref="P30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ACB78C8-C86C-47DC-B0A3-D31AFF12A063}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="4"/>
+  </cols>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18233,6 +20554,25 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E534AD5-B05C-4068-855C-9155B9F31E90}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/JavaScript.xlsx
+++ b/JavaScript.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
